--- a/mi_excel.xlsx
+++ b/mi_excel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B72"/>
+  <dimension ref="A1:B84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,122 +453,122 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>7,10,1,1,2</t>
+          <t>23,24,31,9,4</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>T</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>8,11,2,2,3</t>
+          <t>7,10,1,1,2</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>W</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>9,13,3,3,4</t>
+          <t>8,11,2,2,3</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>D</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>7,11,3,2,2</t>
+          <t>9,13,3,3,4</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>W</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>9,11,1,2,4</t>
+          <t>7,11,3,2,2</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>B</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>8,10,1,1,3</t>
+          <t>9,11,1,2,4</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>Z</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>8,13,3,3,3</t>
+          <t>8,10,1,1,3</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>T</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>7,10,2,3,4</t>
+          <t>8,13,3,3,3</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>J</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>9,13,2,1,2</t>
+          <t>7,10,2,3,4</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>J</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>23,24,31,9,4</t>
+          <t>9,13,2,1,2</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>S</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -580,127 +580,127 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>8,10,2,3,3</t>
+          <t>23,24,31,9,4</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>T</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>7,11,2,2,2</t>
+          <t>8,10,2,3,3</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>H</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>9,11,2,2,4</t>
+          <t>7,11,2,2,2</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>P</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>7,11,1,2,2</t>
+          <t>9,11,2,2,4</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>I</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>9,11,3,2,4</t>
+          <t>7,11,1,2,2</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>8,11,1,2,3</t>
+          <t>9,11,3,2,4</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>T</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>8,11,3,2,3</t>
+          <t>8,11,1,2,3</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>B</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>7,10,3,1,2</t>
+          <t>8,11,3,2,3</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>O</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>9,13,1,3,4</t>
+          <t>7,10,3,1,2</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>A</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>23,24,31,9,4</t>
+          <t>9,13,1,3,4</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>E</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -712,84 +712,84 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>A</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>9,10,1,1,4</t>
+          <t>23,24,31,9,4</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>H</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>8,13,1,3,3</t>
+          <t>9,10,1,1,4</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>E</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>8,10,3,1,3</t>
+          <t>8,13,1,3,3</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>V</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>7,13,1,3,2</t>
+          <t>8,10,3,1,3</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>K</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>9,10,3,1,4</t>
+          <t>7,13,1,3,2</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>27,26,27,32,33</t>
+          <t>9,10,3,1,4</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>K</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>28,27,28,35,34</t>
+          <t>27,26,27,32,33</t>
         </is>
       </c>
     </row>
@@ -801,26 +801,26 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0,0,0,0,0</t>
+          <t>28,27,28,35,34</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>O</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>12,12,20,11,2</t>
+          <t>0,0,0,0,0</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>H</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -832,31 +832,31 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>X</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>23,24,31,9,4</t>
+          <t>12,12,20,11,2</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>Z</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>12,12,20,11,2</t>
+          <t>23,24,31,9,4</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -868,7 +868,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>B</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -880,7 +880,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>P</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -892,7 +892,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -904,7 +904,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>T</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -916,240 +916,240 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>E</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>12,12,20,11,2</t>
+          <t>12,12,20,11,12</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>K</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>12,12,20,11,2</t>
+          <t>12,12,20,27,12</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>E</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>12,12,20,11,2</t>
+          <t>3,7,23,4,10</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>Z</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>12,12,20,11,2</t>
+          <t>3,7,23,4,1</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>Z</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>23,24,31,9,4</t>
+          <t>3,7,23,23,1</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>U</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>12,12,20,11,2</t>
+          <t>23,24,31,9,4</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>11,4,1,1,4</t>
+          <t>8,11,2,2,3</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>11,4,1,1,1</t>
+          <t>8,11,2,2,1</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>11,4,1,23,1</t>
+          <t>8,11,2,23,1</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>7,3,5,5,13</t>
+          <t>11,4,1,1,4</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>J</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>7,3,5,5,1</t>
+          <t>11,4,1,1,1</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>D</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>7,3,5,23,1</t>
+          <t>11,4,1,23,1</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>H</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>15,1,7,7,6</t>
+          <t>7,3,5,5,13</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>J</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>15,1,7,7,1</t>
+          <t>7,3,5,5,1</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>P</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>15,1,7,23,1</t>
+          <t>7,3,5,23,1</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>23,24,31,9,4</t>
+          <t>15,1,7,7,6</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>12,12,20,11,2</t>
+          <t>23,24,31,9,4</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>B</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>1,7,18,26,7</t>
+          <t>15,1,7,7,1</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>16,27,6,23,1</t>
+          <t>15,1,7,23,1</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>R</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>19,18,2,21,31</t>
+          <t>16,0,6,16,27</t>
         </is>
       </c>
     </row>
@@ -1161,139 +1161,283 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>18,17,3,19,29</t>
+          <t>16,0,6,16,1</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>V</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>12,10,20,9,7</t>
+          <t>16,0,6,23,1</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>V</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>1,5,20,3,5</t>
+          <t>3,7,20,4,10</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>8,11,20,2,3</t>
+          <t>5,2,20,23,1</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>11,4,20,1,4</t>
+          <t>4,10,20,9,7</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>D</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>7,13,20,9,13</t>
+          <t>1,5,20,3,5</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>I</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>23,24,31,9,4</t>
+          <t>8,11,20,2,3</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>J</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>15,1,20,7,6</t>
+          <t>23,24,31,9,4</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>D</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>16,27,20,16,27</t>
+          <t>11,4,20,1,4</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>U</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>20,17,3,12,30</t>
+          <t>7,3,20,5,13</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>I</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2,20,19,20,8</t>
+          <t>15,1,20,7,6</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>16,0,20,16,27</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Z</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>13,6,13,27,12</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>2,20,19,20,8</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>20,17,3,12,30</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Z</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>5,2,10,23,1</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>5,2,10,23,10</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>5,2,10,4,10</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>4,10,25,9,7</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>4,10,25,9,1</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
           <t>A</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>13,6,13,27,12</t>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>4,10,25,23,1</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>1,5,11,3,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>1,5,11,3,1</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>1,5,11,23,1</t>
         </is>
       </c>
     </row>
